--- a/productosnuevosdifarlib.xlsx
+++ b/productosnuevosdifarlib.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NUMERO</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -445,12 +445,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>DISTRITO...24</t>
+          <t>DISTRITO...22</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PROVINCIA...23</t>
+          <t>PROVINCIA...21</t>
         </is>
       </c>
     </row>

--- a/productosnuevosdifarlib.xlsx
+++ b/productosnuevosdifarlib.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -445,12 +445,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>DISTRITO...22</t>
+          <t>DISTRITO...24</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PROVINCIA...21</t>
+          <t>PROVINCIA...23</t>
         </is>
       </c>
     </row>

--- a/productosnuevosdifarlib.xlsx
+++ b/productosnuevosdifarlib.xlsx
@@ -445,12 +445,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>DISTRITO...24</t>
+          <t>DISTRITO...27</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PROVINCIA...23</t>
+          <t>PROVINCIA...28</t>
         </is>
       </c>
     </row>
